--- a/MainTop/07.06.2025/таня месяц с 06.05.2025 по 06.06.2025/p4.xlsx
+++ b/MainTop/07.06.2025/таня месяц с 06.05.2025 по 06.06.2025/p4.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C64"/>
+  <dimension ref="A1:C63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,7 +453,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Термонаклейка Лило и Стич сидят</t>
+          <t>Термонаклейка Девочка в зелёном с подсолнухом</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -468,7 +468,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Термонаклейка Девочка в зелёном с подсолнухом</t>
+          <t>Термонаклейка Котята на качелях</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -483,7 +483,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Термонаклейка Котята на качелях</t>
+          <t>Термонаклейка Девочка в розовом платье</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -498,7 +498,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Термонаклейка Девочка в розовом платье</t>
+          <t>Термонаклейка Русалочка поправляет прическу</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -513,7 +513,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Термонаклейка Русалочка поправляет прическу</t>
+          <t>Термонаклейка Балерина в сиреневом</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -528,11 +528,11 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Термонаклейка Балерина в сиреневом</t>
+          <t>Термонаклейка Единороги голубой и розовый</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -543,7 +543,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Термонаклейка Единороги голубой и розовый</t>
+          <t>Термонаклейка Соник Ежик бежит синий фон краски</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -558,7 +558,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Термонаклейка Соник Ежик бежит синий фон краски</t>
+          <t>Термонаклейка Минни Маус поправляет бант</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -573,7 +573,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Термонаклейка Минни Маус поправляет бант</t>
+          <t>Термонаклейка Дисней утка Дейзи и Минни пис</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -588,7 +588,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Термонаклейка Дисней утка Дейзи и Минни пис</t>
+          <t>Термонаклейка Марвел супергерои 4 верт фона</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -603,7 +603,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Термонаклейка Марвел супергерои 4 верт фона</t>
+          <t>Термонаклейка Чёрный котенок в цветах</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -618,7 +618,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Термонаклейка Чёрный котенок в цветах</t>
+          <t>Термонаклейка Собачка красный бантик</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -633,7 +633,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Термонаклейка Собачка красный бантик</t>
+          <t>Термонаклейка Весёлый енот выглядывает</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -648,7 +648,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Термонаклейка Весёлый енот выглядывает</t>
+          <t>Термонаклейка Человек Паук Лого позади</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -663,7 +663,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Термонаклейка Человек Паук Лого позади</t>
+          <t>Термонаклейка Девочка с маком в руках</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -678,7 +678,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Термонаклейка Девочка с маком в руках</t>
+          <t>Термонаклейка львенок выглядывает игриво</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -693,7 +693,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Термонаклейка львенок выглядывает игриво</t>
+          <t>Термонаклейка Спанч Боб и друзья</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -708,7 +708,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Термонаклейка Спанч Боб и друзья</t>
+          <t>Термонаклейка Мишка Каратэ нога вверх</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -723,7 +723,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Термонаклейка Мишка Каратэ нога вверх</t>
+          <t>Термонаклейка Дисней утка Дейзи улыбка</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -738,7 +738,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Термонаклейка Дисней утка Дейзи улыбка</t>
+          <t>Термонаклейка Котенок с цветами ромашками</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -753,7 +753,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Термонаклейка Котенок с цветами ромашками</t>
+          <t>Термонаклейка Эльза Холодное сердце синий круг</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -768,7 +768,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Термонаклейка Эльза Холодное сердце синий круг</t>
+          <t>Термонаклейка Котенок с шариком сердечко</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -783,7 +783,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Термонаклейка Котенок с шариком сердечко</t>
+          <t>Термонаклейка львенок с милой улыбкой</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -798,7 +798,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Термонаклейка львенок с милой улыбкой</t>
+          <t>Термонаклейка Улыбающийся лисенок в снегу</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -813,7 +813,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Термонаклейка Улыбающийся лисенок в снегу</t>
+          <t>Термонаклейка Эльза Анна Холодное сердце паттерн</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -828,7 +828,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Термонаклейка Эльза Анна Холодное сердце паттерн</t>
+          <t>Термонаклейка Барби фон розовый круг</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -843,7 +843,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Термонаклейка Барби фон розовый круг</t>
+          <t>Термонаклейка Акула серфинг в очках</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -858,7 +858,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Термонаклейка Акула серфинг в очках</t>
+          <t>Термонаклейка Спанч Боб и друзья Keep Vibes</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -873,7 +873,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Термонаклейка Спанч Боб и друзья Keep Vibes</t>
+          <t>Термонаклейка Микки Маус показывает язык</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -888,7 +888,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Термонаклейка Микки Маус показывает язык</t>
+          <t>Термонаклейка Собачка синий бантик</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -903,7 +903,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Термонаклейка Собачка синий бантик</t>
+          <t>Термонаклейка Зевающий зайка в пижаме</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -918,7 +918,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Термонаклейка Зевающий зайка в пижаме</t>
+          <t>Термонаклейка Львенок счастливый</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -933,7 +933,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Термонаклейка Львенок счастливый</t>
+          <t>Термонаклейка Соник Ежик бежит пис мир рука</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -948,7 +948,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Термонаклейка Соник Ежик бежит пис мир рука</t>
+          <t>Термонаклейка Сова розовая</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -963,7 +963,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Термонаклейка Сова розовая</t>
+          <t>Термонаклейка Жирафвыглядывает замок одежды</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -978,7 +978,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Термонаклейка Жирафвыглядывает замок одежды</t>
+          <t>Термонаклейка Разноцветные сердечки</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -993,7 +993,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Термонаклейка Разноцветные сердечки</t>
+          <t>Термонаклейка Собачка в очках язык</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -1008,7 +1008,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Термонаклейка Собачка в очках язык</t>
+          <t>Термонаклейка Человек Паук Лого круг</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -1023,7 +1023,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Термонаклейка Человек Паук Лого круг</t>
+          <t>Термонаклейка Барт с рогаткой Симпсоны</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -1038,7 +1038,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Термонаклейка Барт с рогаткой Симпсоны</t>
+          <t>Термонаклейка Динозавр в очках играет на гитаре</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -1053,7 +1053,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Термонаклейка Динозавр в очках играет на гитаре</t>
+          <t>Термонаклейка Собачка в шляпе</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -1068,7 +1068,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Термонаклейка Собачка в шляпе</t>
+          <t>Термонаклейка Миньоны на банане</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -1083,7 +1083,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Термонаклейка Миньоны на банане</t>
+          <t>Термонаклейка Девочка с бабочкой</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -1098,7 +1098,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Термонаклейка Девочка с бабочкой</t>
+          <t>Термонаклейка Радужный мишка с улыбкой</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -1113,7 +1113,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Термонаклейка Радужный мишка с улыбкой</t>
+          <t>Термонаклейка Радужный котенок счастливый</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -1128,7 +1128,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Термонаклейка Радужный котенок счастливый</t>
+          <t>Термонаклейка Фея в ночном лесу</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -1143,7 +1143,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Термонаклейка Фея в ночном лесу</t>
+          <t>Термонаклейка Человек Паук круг красный синий</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -1158,7 +1158,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Термонаклейка Человек Паук круг красный синий</t>
+          <t>Термонаклейка Котенок в розовой кружке</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -1173,7 +1173,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Термонаклейка Котенок в розовой кружке</t>
+          <t>Термонаклейка Человек Паук синий желтый круг</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -1188,7 +1188,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Термонаклейка Человек Паук синий желтый круг</t>
+          <t>Термонаклейка Лисенок с кружкой</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -1203,7 +1203,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Термонаклейка Лисенок с кружкой</t>
+          <t>Термонаклейка Мишка байкер мотоцикл</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -1218,7 +1218,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Термонаклейка Мишка байкер мотоцикл</t>
+          <t>Термонаклейка Дейзи и Минни Маус коктейль</t>
         </is>
       </c>
       <c r="B53" t="n">
@@ -1233,7 +1233,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Термонаклейка Дейзи и Минни Маус коктейль</t>
+          <t>Термонаклейка Минни Маус и бабочка</t>
         </is>
       </c>
       <c r="B54" t="n">
@@ -1248,7 +1248,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Термонаклейка Минни Маус и бабочка</t>
+          <t>Термонаклейка Лисёнок в свитере с узорами</t>
         </is>
       </c>
       <c r="B55" t="n">
@@ -1263,7 +1263,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Термонаклейка Лисёнок в свитере с узорами</t>
+          <t>Термонаклейка Зайчик синий комбинезон шагает</t>
         </is>
       </c>
       <c r="B56" t="n">
@@ -1278,7 +1278,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Термонаклейка Зайчик синий комбинезон шагает</t>
+          <t>Термонаклейка Единорог ресницы цветы уши</t>
         </is>
       </c>
       <c r="B57" t="n">
@@ -1293,7 +1293,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Термонаклейка Единорог ресницы цветы уши</t>
+          <t>Термонаклейка Винни Пух и друзья на шаре</t>
         </is>
       </c>
       <c r="B58" t="n">
@@ -1308,7 +1308,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Термонаклейка Винни Пух и друзья на шаре</t>
+          <t>Термонаклейка Миньон с бананами</t>
         </is>
       </c>
       <c r="B59" t="n">
@@ -1323,7 +1323,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Термонаклейка Миньон с бананами</t>
+          <t>Термонаклейка Мишка красная гоночная машина</t>
         </is>
       </c>
       <c r="B60" t="n">
@@ -1338,7 +1338,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Термонаклейка Мишка красная гоночная машина</t>
+          <t>Термонаклейка Мишка на Самокате</t>
         </is>
       </c>
       <c r="B61" t="n">
@@ -1353,7 +1353,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Термонаклейка Мишка на Самокате</t>
+          <t>Термонаклейка Дисней утка Дейзи и Минни сидят</t>
         </is>
       </c>
       <c r="B62" t="n">
@@ -1368,28 +1368,13 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Термонаклейка Дисней утка Дейзи и Минни сидят</t>
+          <t>Термонаклейка Ёжики в кружках с сердечками</t>
         </is>
       </c>
       <c r="B63" t="n">
         <v>4</v>
       </c>
       <c r="C63" t="inlineStr">
-        <is>
-          <t>2_а5</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>Термонаклейка Ёжики в кружках с сердечками</t>
-        </is>
-      </c>
-      <c r="B64" t="n">
-        <v>4</v>
-      </c>
-      <c r="C64" t="inlineStr">
         <is>
           <t>2_а5</t>
         </is>
